--- a/biology/Botanique/Veronica_polita/Veronica_polita.xlsx
+++ b/biology/Botanique/Veronica_polita/Veronica_polita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Véronique brillante, Véronique luisante
-Veronica polita, appelée Véronique brillante, est une espèce de plantes de la famille des Plantaginacées. Elle est aussi nommée Véronique luisante ou Véronique polie[1].
+Veronica polita, appelée Véronique brillante, est une espèce de plantes de la famille des Plantaginacées. Elle est aussi nommée Véronique luisante ou Véronique polie.
 </t>
         </is>
       </c>
@@ -512,17 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante herbacée annuelle au port rampant, elle atteint généralement une hauteur de 8 à 15 centimètres, allant jusqu'à 30 cm à l'horizontale. Elle fleurit de mars à octobre[2].
-Morphologie générale et végétative
-Les feuilles opposées ont un pétiole court. Leur limbe, légèrement charnu, brillant, presque glabre, a une forme semi-circulaire à triangulaire. La marge est grossièrement dentée et assez recourbée. La feuille est beaucoup plus pâle et velue en dessous. 
-Morphologie florale
-Les fleurs hermaphrodites sont disposées en grappe. D'un diamètre de 5 à 8 millimètres, elles ont un double périanthe. La corolle est de couleur bleue, rarement blanche et peut présenter un anneau sombre.
-La pollinisation est entomogame et autogame[3].
-Fruit
-Le fruit est une capsule, de 3 à 4 millimètres de long et de 4 à 6 millimètres de large. Il est arrondi ou en forme de rein, comprimé au milieu. Il est densément velu, de poils glanduleux courts et longs. Le style a généralement une longueur de 1 à 1,6 millimètre. Les sépales sont largement ovales et se chevauchent à la base.
-La dissémination est autochore.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante herbacée annuelle au port rampant, elle atteint généralement une hauteur de 8 à 15 centimètres, allant jusqu'à 30 cm à l'horizontale. Elle fleurit de mars à octobre.
 </t>
         </is>
       </c>
@@ -548,12 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Écologie et habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Veronica polita est répandue dans toutes les zones tempérées des continents eurasiatiques. Elle pousse dans les cultures, les vignes et les jardins. Elle préfère les sols limoneux plus ou moins frais. En France, on peut la rencontrer jusqu'à 1 200 mètres d'altitude[4]
+          <t>Morphologie générale et végétative</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles opposées ont un pétiole court. Leur limbe, légèrement charnu, brillant, presque glabre, a une forme semi-circulaire à triangulaire. La marge est grossièrement dentée et assez recourbée. La feuille est beaucoup plus pâle et velue en dessous. 
 </t>
         </is>
       </c>
@@ -579,10 +591,121 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Morphologie florale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs hermaphrodites sont disposées en grappe. D'un diamètre de 5 à 8 millimètres, elles ont un double périanthe. La corolle est de couleur bleue, rarement blanche et peut présenter un anneau sombre.
+La pollinisation est entomogame et autogame.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Veronica_polita</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Veronica_polita</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est une capsule, de 3 à 4 millimètres de long et de 4 à 6 millimètres de large. Il est arrondi ou en forme de rein, comprimé au milieu. Il est densément velu, de poils glanduleux courts et longs. Le style a généralement une longueur de 1 à 1,6 millimètre. Les sépales sont largement ovales et se chevauchent à la base.
+La dissémination est autochore.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Veronica_polita</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Veronica_polita</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Veronica polita est répandue dans toutes les zones tempérées des continents eurasiatiques. Elle pousse dans les cultures, les vignes et les jardins. Elle préfère les sols limoneux plus ou moins frais. En France, on peut la rencontrer jusqu'à 1 200 mètres d'altitude
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Veronica_polita</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Veronica_polita</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Images</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
